--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -25,6 +25,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -33,6 +34,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ角ゴ ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>階層</t>
     </r>
@@ -46,6 +48,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -54,6 +57,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ角ゴ ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>階層</t>
     </r>
@@ -70,6 +74,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -78,6 +83,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ角ゴ ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>ファイル名</t>
     </r>
@@ -92,7 +98,7 @@
     <t>/index.html</t>
   </si>
   <si>
-    <t>about</t>
+    <t>About</t>
   </si>
   <si>
     <r>
@@ -103,6 +109,7 @@
         <sz val="10"/>
         <rFont val="ヒラギノ角ゴ ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>このサイトについて</t>
     </r>
@@ -111,7 +118,7 @@
     <t>/about.html</t>
   </si>
   <si>
-    <t>お問い合わせ</t>
+    <t>Contact</t>
   </si>
   <si>
     <r>
@@ -122,12 +129,13 @@
         <sz val="10"/>
         <rFont val="ヒラギノ角ゴ ProN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>お問い合わせ</t>
     </r>
   </si>
   <si>
-    <t>/request.html</t>
+    <t>/contact.html</t>
   </si>
 </sst>
 </file>
@@ -142,6 +150,7 @@
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,6 +171,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,7 +238,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,16 +326,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>221400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1473480</xdr:colOff>
+      <xdr:colOff>1969920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -334,13 +344,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="10027" t="15006" r="10027" b="25005"/>
+        <a:srcRect l="15045" t="15006" r="15045" b="30017"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="460080" y="218880"/>
-          <a:ext cx="3687120" cy="1953000"/>
+          <a:off x="770040" y="196920"/>
+          <a:ext cx="3895920" cy="1997640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -363,18 +373,18 @@
   <dimension ref="B16:F19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.87012987012987"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.55844155844156"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1861471861472"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5367965367965"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6623376623377"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7445887445887"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.77489177489177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.8961038961039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.5974025974026"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2770562770563"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6536796536797"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8614718614719"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8528138528139"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.85714285714286"/>
   </cols>
   <sheetData>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">

--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
       <t>第</t>
@@ -92,17 +92,28 @@
     <t>トップページ</t>
   </si>
   <si>
-    <t>PlaMoCLip</t>
+    <r>
+      <t>plamostagram – Instagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ角ゴ ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>からプラモデルを集めたサイト</t>
+    </r>
   </si>
   <si>
     <t>/index.html</t>
   </si>
   <si>
-    <t>About</t>
-  </si>
-  <si>
-    <r>
-      <t>PlaMoCLip−</t>
+    <t>about</t>
+  </si>
+  <si>
+    <r>
+      <t>plamostagram – </t>
     </r>
     <r>
       <rPr>
@@ -118,24 +129,27 @@
     <t>/about.html</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <r>
-      <t>PlaMoCLip−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ヒラギノ角ゴ ProN"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>お問い合わせ</t>
+    <t>contact</t>
+  </si>
+  <si>
+    <r>
+      <t>plamostagram – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ角ゴ ProN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>お問い合わせフォーム</t>
     </r>
   </si>
   <si>
     <t>/contact.html</t>
+  </si>
+  <si>
+    <t>※第2次改修以降作成</t>
   </si>
 </sst>
 </file>
@@ -229,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +261,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,134 +344,94 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1969920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="画像 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="15045" t="15006" r="15045" b="30017"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="770040" y="196920"/>
-          <a:ext cx="3895920" cy="1997640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B16:F19"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.8961038961039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.5974025974026"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2770562770563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6536796536797"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8614718614719"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8528138528139"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.92640692640693"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.63636363636364"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3766233766234"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7662337662338"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.6320346320346"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.965367965368"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.94372294372294"/>
   </cols>
   <sheetData>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -458,6 +440,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>